--- a/FARP_Project Data.xlsx
+++ b/FARP_Project Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\Nicola\UNIBG\Sistemi di controllo di gestione\Progetto\script analisi scostamenti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\Nicola\UNIBG\Sistemi di controllo di gestione\script analisi scostamenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66940DB7-D4F4-47C0-B80F-4B209575B1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FFBC9B-9E37-48E4-BB53-5B58EF49F813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CE 21-22" sheetId="3" r:id="rId1"/>
@@ -40,30 +40,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="195">
   <si>
     <t>MP1</t>
   </si>
@@ -713,6 +691,18 @@
   <si>
     <t xml:space="preserve">poi fare *7/12 perche solo una parte </t>
   </si>
+  <si>
+    <t>1, da dove arrivano alcuni numeri</t>
+  </si>
+  <si>
+    <t>2, come mai le materie nel budget sono diverse da eulle del consuntivo</t>
+  </si>
+  <si>
+    <t>qta</t>
+  </si>
+  <si>
+    <t>€/qta</t>
+  </si>
 </sst>
 </file>
 
@@ -732,7 +722,7 @@
     <numFmt numFmtId="172" formatCode="_-&quot;L.&quot;\ * #,##0_-;\-&quot;L.&quot;\ * #,##0_-;_-&quot;L.&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="173" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -891,8 +881,23 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -953,6 +958,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="32">
     <border>
@@ -1351,7 +1368,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1528,6 +1545,12 @@
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="4" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="22" fillId="10" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="13" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1561,12 +1584,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="11" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="22" fillId="10" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="12" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="5" fillId="9" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Euro" xfId="16" xr:uid="{6609C029-AE67-4DF2-BB38-0E304B6F97A8}"/>
@@ -2478,10 +2508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09E9022-8714-451A-AC8C-ADBBD3500E3D}">
-  <dimension ref="B1:G62"/>
+  <dimension ref="B1:J62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2496,92 +2526,98 @@
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="86" t="s">
+    <row r="1" spans="2:10" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="E2" s="86" t="s">
+      <c r="C2" s="89"/>
+      <c r="E2" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="87"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="84" t="s">
+      <c r="F2" s="89"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="86" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="90" t="s">
         <v>170</v>
       </c>
       <c r="F3" s="80" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="85"/>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="87"/>
       <c r="C4" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="85"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="43" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="J4" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="96">
+      <c r="C5" s="85">
         <v>61294659.022799999</v>
       </c>
       <c r="E5" s="44"/>
       <c r="F5" s="45"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="J5" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="95">
+      <c r="C6" s="84">
         <v>528226.62545000005</v>
       </c>
       <c r="E6" s="46"/>
       <c r="F6" s="45"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="95">
+      <c r="C7" s="84">
         <v>1877590.3519999997</v>
       </c>
       <c r="E7" s="44"/>
       <c r="F7" s="45"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="100">
         <v>120000</v>
       </c>
       <c r="E8" s="44"/>
       <c r="F8" s="45"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="100">
         <v>500000</v>
       </c>
       <c r="E9" s="44"/>
       <c r="F9" s="45"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="47" t="s">
         <v>70</v>
       </c>
@@ -2589,41 +2625,42 @@
         <f>+SUM(C5:C9)</f>
         <v>64320476.000249997</v>
       </c>
+      <c r="D10" s="27"/>
       <c r="E10" s="47"/>
       <c r="F10" s="48"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="98">
         <v>-49370805.517265007</v>
       </c>
       <c r="E11" s="44"/>
       <c r="F11" s="45"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="97">
         <v>2500000</v>
       </c>
       <c r="E12" s="44"/>
       <c r="F12" s="45"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="99">
         <f>+C11+C12</f>
         <v>-46870805.517265007</v>
       </c>
       <c r="E13" s="47"/>
       <c r="F13" s="48"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="44" t="s">
         <v>74</v>
       </c>
@@ -2639,7 +2676,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="44" t="s">
         <v>75</v>
       </c>
@@ -2653,8 +2690,12 @@
       <c r="F15" s="45">
         <v>-150000</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G15" s="1">
+        <f>150*1.025</f>
+        <v>153.75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="44" t="s">
         <v>76</v>
       </c>
@@ -3155,10 +3196,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Q83"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="K75" sqref="K75"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3183,28 +3224,28 @@
     <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="89" t="s">
+    <row r="1" spans="1:17" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="91" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="91"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="93"/>
       <c r="H2" s="59"/>
-      <c r="J2" s="89" t="s">
+      <c r="J2" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="91"/>
-    </row>
-    <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="93"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="54" t="s">
         <v>110</v>
       </c>
@@ -3245,7 +3286,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="35" t="s">
         <v>0</v>
       </c>
@@ -3264,11 +3305,11 @@
         <v>7</v>
       </c>
       <c r="G4" s="2">
-        <f>D4*E4</f>
-        <v>200</v>
+        <f>D4*F4</f>
+        <v>140</v>
       </c>
       <c r="H4" s="37">
-        <f>D4*F4</f>
+        <f>SUM(_xlfn.ANCHORARRAY(G4))</f>
         <v>140</v>
       </c>
       <c r="J4" s="78" t="s">
@@ -3292,7 +3333,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" s="35" t="s">
         <v>1</v>
       </c>
@@ -3311,13 +3352,10 @@
         <v>1.9918040138198205</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" ref="G5:G32" si="0">D5*E5</f>
-        <v>278930.29920000001</v>
-      </c>
-      <c r="H5" s="37">
-        <f t="shared" ref="H5:H68" si="1">D5*F5</f>
+        <f t="shared" ref="G5:G68" si="0">D5*F5</f>
         <v>195251.20943999998</v>
       </c>
+      <c r="H5" s="37"/>
       <c r="J5" s="35" t="s">
         <v>1</v>
       </c>
@@ -3338,7 +3376,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6" s="35" t="s">
         <v>2</v>
       </c>
@@ -3358,12 +3396,9 @@
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>102175.37500000001</v>
-      </c>
-      <c r="H6" s="37">
-        <f t="shared" si="1"/>
         <v>71522.762500000012</v>
       </c>
+      <c r="H6" s="37"/>
       <c r="J6" s="35" t="s">
         <v>2</v>
       </c>
@@ -3384,7 +3419,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B7" s="35" t="s">
         <v>3</v>
       </c>
@@ -3404,12 +3439,9 @@
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>36398.296800000004</v>
-      </c>
-      <c r="H7" s="37">
-        <f t="shared" si="1"/>
         <v>25478.807759999996</v>
       </c>
+      <c r="H7" s="37"/>
       <c r="J7" s="35" t="s">
         <v>3</v>
       </c>
@@ -3430,7 +3462,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B8" s="35" t="s">
         <v>4</v>
       </c>
@@ -3450,12 +3482,9 @@
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>55.041999999999994</v>
-      </c>
-      <c r="H8" s="37">
-        <f t="shared" si="1"/>
         <v>38.529399999999988</v>
       </c>
+      <c r="H8" s="37"/>
       <c r="J8" s="35" t="s">
         <v>4</v>
       </c>
@@ -3476,7 +3505,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B9" s="35" t="s">
         <v>5</v>
       </c>
@@ -3496,12 +3525,9 @@
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>3420.7830999999996</v>
-      </c>
-      <c r="H9" s="37">
-        <f t="shared" si="1"/>
         <v>2394.5481699999996</v>
       </c>
+      <c r="H9" s="37"/>
       <c r="J9" s="35" t="s">
         <v>5</v>
       </c>
@@ -3522,7 +3548,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10" s="35" t="s">
         <v>6</v>
       </c>
@@ -3542,12 +3568,9 @@
       </c>
       <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>725</v>
-      </c>
-      <c r="H10" s="37">
-        <f t="shared" si="1"/>
         <v>507.49999999999994</v>
       </c>
+      <c r="H10" s="37"/>
       <c r="J10" s="35" t="s">
         <v>6</v>
       </c>
@@ -3568,7 +3591,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B11" s="35" t="s">
         <v>7</v>
       </c>
@@ -3588,12 +3611,9 @@
       </c>
       <c r="G11" s="2">
         <f t="shared" si="0"/>
-        <v>8837.7233999999989</v>
-      </c>
-      <c r="H11" s="37">
-        <f t="shared" si="1"/>
         <v>6186.4063799999994</v>
       </c>
+      <c r="H11" s="37"/>
       <c r="J11" s="35" t="s">
         <v>7</v>
       </c>
@@ -3614,7 +3634,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="101"/>
       <c r="B12" s="35" t="s">
         <v>8</v>
       </c>
@@ -3634,12 +3655,9 @@
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>12304.143499999998</v>
-      </c>
-      <c r="H12" s="37">
-        <f t="shared" si="1"/>
         <v>8612.9004499999974</v>
       </c>
+      <c r="H12" s="37"/>
       <c r="J12" s="35" t="s">
         <v>8</v>
       </c>
@@ -3659,7 +3677,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="62"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B13" s="35" t="s">
         <v>9</v>
       </c>
@@ -3679,12 +3697,9 @@
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>805.51030000000014</v>
-      </c>
-      <c r="H13" s="37">
-        <f t="shared" si="1"/>
         <v>563.85721000000012</v>
       </c>
+      <c r="H13" s="37"/>
       <c r="J13" s="35" t="s">
         <v>9</v>
       </c>
@@ -3704,7 +3719,7 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="62"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B14" s="35" t="s">
         <v>10</v>
       </c>
@@ -3724,12 +3739,9 @@
       </c>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
-        <v>221.15800000000002</v>
-      </c>
-      <c r="H14" s="37">
-        <f t="shared" si="1"/>
         <v>154.81059999999999</v>
       </c>
+      <c r="H14" s="37"/>
       <c r="J14" s="35" t="s">
         <v>10</v>
       </c>
@@ -3749,7 +3761,7 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="62"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" s="35" t="s">
         <v>11</v>
       </c>
@@ -3769,12 +3781,9 @@
       </c>
       <c r="G15" s="2">
         <f t="shared" si="0"/>
-        <v>16904.734400000001</v>
-      </c>
-      <c r="H15" s="37">
-        <f t="shared" si="1"/>
         <v>11833.31408</v>
       </c>
+      <c r="H15" s="37"/>
       <c r="J15" s="35" t="s">
         <v>11</v>
       </c>
@@ -3794,7 +3803,7 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="62"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="35" t="s">
         <v>12</v>
       </c>
@@ -3814,12 +3823,9 @@
       </c>
       <c r="G16" s="2">
         <f t="shared" si="0"/>
-        <v>94.434100000000001</v>
-      </c>
-      <c r="H16" s="37">
-        <f t="shared" si="1"/>
         <v>66.103870000000001</v>
       </c>
+      <c r="H16" s="37"/>
       <c r="J16" s="35" t="s">
         <v>12</v>
       </c>
@@ -3859,12 +3865,9 @@
       </c>
       <c r="G17" s="2">
         <f t="shared" si="0"/>
-        <v>7018.7364000000007</v>
-      </c>
-      <c r="H17" s="37">
-        <f t="shared" si="1"/>
         <v>4913.1154800000004</v>
       </c>
+      <c r="H17" s="37"/>
       <c r="J17" s="79" t="s">
         <v>13</v>
       </c>
@@ -3904,12 +3907,9 @@
       </c>
       <c r="G18" s="2">
         <f t="shared" si="0"/>
-        <v>8860.5080500000022</v>
-      </c>
-      <c r="H18" s="37">
-        <f t="shared" si="1"/>
         <v>6202.3556350000008</v>
       </c>
+      <c r="H18" s="37"/>
       <c r="J18" s="78" t="s">
         <v>14</v>
       </c>
@@ -3949,12 +3949,9 @@
       </c>
       <c r="G19" s="2">
         <f t="shared" si="0"/>
-        <v>1838.1226999999994</v>
-      </c>
-      <c r="H19" s="37">
-        <f t="shared" si="1"/>
         <v>1286.6858899999997</v>
       </c>
+      <c r="H19" s="37"/>
       <c r="J19" s="35" t="s">
         <v>15</v>
       </c>
@@ -3994,12 +3991,9 @@
       </c>
       <c r="G20" s="2">
         <f t="shared" si="0"/>
-        <v>2023.0603000000001</v>
-      </c>
-      <c r="H20" s="37">
-        <f t="shared" si="1"/>
         <v>1416.1422100000002</v>
       </c>
+      <c r="H20" s="37"/>
       <c r="J20" s="35" t="s">
         <v>16</v>
       </c>
@@ -4039,12 +4033,9 @@
       </c>
       <c r="G21" s="2">
         <f t="shared" si="0"/>
-        <v>39078.655400000003</v>
-      </c>
-      <c r="H21" s="37">
-        <f t="shared" si="1"/>
         <v>27355.058779999999</v>
       </c>
+      <c r="H21" s="37"/>
       <c r="J21" s="35" t="s">
         <v>17</v>
       </c>
@@ -4084,12 +4075,9 @@
       </c>
       <c r="G22" s="2">
         <f t="shared" si="0"/>
-        <v>26.767999999999997</v>
-      </c>
-      <c r="H22" s="37">
-        <f t="shared" si="1"/>
         <v>18.737599999999997</v>
       </c>
+      <c r="H22" s="37"/>
       <c r="J22" s="79" t="s">
         <v>18</v>
       </c>
@@ -4129,12 +4117,9 @@
       </c>
       <c r="G23" s="2">
         <f t="shared" si="0"/>
-        <v>7.6500000000000012E-2</v>
-      </c>
-      <c r="H23" s="37">
-        <f t="shared" si="1"/>
         <v>5.3550000000000007E-2</v>
       </c>
+      <c r="H23" s="37"/>
       <c r="J23" s="78" t="s">
         <v>19</v>
       </c>
@@ -4174,16 +4159,9 @@
       </c>
       <c r="G24" s="2">
         <f t="shared" si="0"/>
-        <v>7860.5039000000006</v>
-      </c>
-      <c r="H24" s="37">
-        <f t="shared" si="1"/>
         <v>5502.3527299999996</v>
       </c>
-      <c r="I24" s="37">
-        <f>SUM(G4:G27)</f>
-        <v>528226.62545000017</v>
-      </c>
+      <c r="H24" s="37"/>
       <c r="J24" s="35" t="s">
         <v>20</v>
       </c>
@@ -4223,12 +4201,9 @@
       </c>
       <c r="G25" s="2">
         <f t="shared" si="0"/>
-        <v>174.2364</v>
-      </c>
-      <c r="H25" s="37">
-        <f t="shared" si="1"/>
         <v>121.96547999999999</v>
       </c>
+      <c r="H25" s="37"/>
       <c r="J25" s="35" t="s">
         <v>21</v>
       </c>
@@ -4268,12 +4243,9 @@
       </c>
       <c r="G26" s="2">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="H26" s="37">
-        <f t="shared" si="1"/>
         <v>83.999999999999986</v>
       </c>
+      <c r="H26" s="37"/>
       <c r="J26" s="35" t="s">
         <v>22</v>
       </c>
@@ -4313,16 +4285,9 @@
       </c>
       <c r="G27" s="2">
         <f t="shared" si="0"/>
-        <v>153.458</v>
-      </c>
-      <c r="H27" s="37">
-        <f t="shared" si="1"/>
         <v>107.42060000000001</v>
       </c>
-      <c r="I27" s="11">
-        <f>SUM(H4:H27)</f>
-        <v>369758.63781500002</v>
-      </c>
+      <c r="H27" s="37"/>
       <c r="J27" s="35" t="s">
         <v>23</v>
       </c>
@@ -4361,12 +4326,9 @@
       </c>
       <c r="G28" s="2">
         <f t="shared" si="0"/>
-        <v>150086.87000000002</v>
-      </c>
-      <c r="H28" s="37">
-        <f t="shared" si="1"/>
         <v>746725.45665999991</v>
       </c>
+      <c r="H28" s="37"/>
       <c r="J28" s="35" t="s">
         <v>24</v>
       </c>
@@ -4405,12 +4367,9 @@
       </c>
       <c r="G29" s="2">
         <f t="shared" si="0"/>
-        <v>174444.6</v>
-      </c>
-      <c r="H29" s="37">
-        <f t="shared" si="1"/>
         <v>125105.1498</v>
       </c>
+      <c r="H29" s="37"/>
       <c r="J29" s="35" t="s">
         <v>25</v>
       </c>
@@ -4450,12 +4409,9 @@
       </c>
       <c r="G30" s="2">
         <f t="shared" si="0"/>
-        <v>1196429.0719999997</v>
-      </c>
-      <c r="H30" s="37">
-        <f t="shared" si="1"/>
         <v>746727.61171000008</v>
       </c>
+      <c r="H30" s="37"/>
       <c r="J30" s="35" t="s">
         <v>26</v>
       </c>
@@ -4495,12 +4451,9 @@
       </c>
       <c r="G31" s="2">
         <f t="shared" si="0"/>
-        <v>350085.81</v>
-      </c>
-      <c r="H31" s="37">
-        <f t="shared" si="1"/>
         <v>286668.75979999994</v>
       </c>
+      <c r="H31" s="37"/>
       <c r="J31" s="35" t="s">
         <v>27</v>
       </c>
@@ -4540,16 +4493,9 @@
       </c>
       <c r="G32" s="2">
         <f t="shared" si="0"/>
-        <v>6544</v>
-      </c>
-      <c r="H32" s="37">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I32" s="37">
-        <f>SUM(G28:G32)</f>
-        <v>1877590.3519999997</v>
-      </c>
+      <c r="H32" s="37"/>
       <c r="J32" s="35" t="s">
         <v>28</v>
       </c>
@@ -4588,13 +4534,10 @@
         <v>0</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" ref="G5:G68" si="2">D33*E33</f>
-        <v>14403.119999999999</v>
-      </c>
-      <c r="H33" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H33" s="37"/>
       <c r="J33" s="35" t="s">
         <v>29</v>
       </c>
@@ -4632,13 +4575,10 @@
         <v>1.58</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="2"/>
-        <v>5559709.8999999994</v>
-      </c>
-      <c r="H34" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4194677.22</v>
       </c>
+      <c r="H34" s="37"/>
       <c r="J34" s="35" t="s">
         <v>30</v>
       </c>
@@ -4677,13 +4617,10 @@
         <v>1.5527802479338846</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="2"/>
-        <v>724716</v>
-      </c>
-      <c r="H35" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>507293.30700000009</v>
       </c>
+      <c r="H35" s="37"/>
       <c r="J35" s="35" t="s">
         <v>31</v>
       </c>
@@ -4722,13 +4659,10 @@
         <v>1.5542673597477665</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="2"/>
-        <v>2510889.25</v>
-      </c>
-      <c r="H36" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1848606.7409999999</v>
       </c>
+      <c r="H36" s="37"/>
       <c r="J36" s="35" t="s">
         <v>32</v>
       </c>
@@ -4766,13 +4700,10 @@
         <v>1.5</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="2"/>
-        <v>21241603.25</v>
-      </c>
-      <c r="H37" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14694112.5</v>
       </c>
+      <c r="H37" s="37"/>
       <c r="J37" s="35" t="s">
         <v>33</v>
       </c>
@@ -4811,13 +4742,10 @@
         <v>1.6734552903739062</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="2"/>
-        <v>614614.5</v>
-      </c>
-      <c r="H38" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>420706.66000000003</v>
       </c>
+      <c r="H38" s="37"/>
       <c r="J38" s="35" t="s">
         <v>34</v>
       </c>
@@ -4855,13 +4783,10 @@
         <v>1.5</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="2"/>
-        <v>8376445.25</v>
-      </c>
-      <c r="H39" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5775450</v>
       </c>
+      <c r="H39" s="37"/>
       <c r="J39" s="35" t="s">
         <v>35</v>
       </c>
@@ -4900,13 +4825,10 @@
         <v>0.54555471354446228</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="2"/>
-        <v>402635.24</v>
-      </c>
-      <c r="H40" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>304910.52939999994</v>
       </c>
+      <c r="H40" s="37"/>
       <c r="J40" s="35" t="s">
         <v>36</v>
       </c>
@@ -4944,13 +4866,10 @@
         <v>0.91844443287446687</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="2"/>
-        <v>665350.65</v>
-      </c>
-      <c r="H41" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>493048.52490000002</v>
       </c>
+      <c r="H41" s="37"/>
       <c r="J41" s="35" t="s">
         <v>37</v>
       </c>
@@ -4987,13 +4906,10 @@
         <v>0.9</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="2"/>
-        <v>3174643.7600000002</v>
-      </c>
-      <c r="H42" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2116412.1</v>
       </c>
+      <c r="H42" s="37"/>
       <c r="J42" s="35" t="s">
         <v>38</v>
       </c>
@@ -5031,13 +4947,10 @@
         <v>0.89400994847456083</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="2"/>
-        <v>952763.08</v>
-      </c>
-      <c r="H43" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>712599.23774999985</v>
       </c>
+      <c r="H43" s="37"/>
       <c r="J43" s="35" t="s">
         <v>39</v>
       </c>
@@ -5075,13 +4988,10 @@
         <v>0.78402539985278485</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="2"/>
-        <v>977929.9</v>
-      </c>
-      <c r="H44" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>718970.89230000007</v>
       </c>
+      <c r="H44" s="37"/>
       <c r="J44" s="35" t="s">
         <v>40</v>
       </c>
@@ -5120,13 +5030,10 @@
         <v>0.85086392559761459</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="2"/>
-        <v>669980.06999999995</v>
-      </c>
-      <c r="H45" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>522166.68250000011</v>
       </c>
+      <c r="H45" s="37"/>
       <c r="J45" s="35" t="s">
         <v>41</v>
       </c>
@@ -5165,13 +5072,10 @@
         <v>0.80808670859978349</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="2"/>
-        <v>215089.35</v>
-      </c>
-      <c r="H46" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>115625.08670000001</v>
       </c>
+      <c r="H46" s="37"/>
       <c r="J46" s="35" t="s">
         <v>42</v>
       </c>
@@ -5210,13 +5114,10 @@
         <v>0.51070224489795923</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="2"/>
-        <v>3005.65</v>
-      </c>
-      <c r="H47" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1876.8307500000001</v>
       </c>
+      <c r="H47" s="37"/>
       <c r="J47" s="35" t="s">
         <v>43</v>
       </c>
@@ -5255,13 +5156,10 @@
         <v>0.92105041861721271</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="2"/>
-        <v>273091.26</v>
-      </c>
-      <c r="H48" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>204620.56099999999</v>
       </c>
+      <c r="H48" s="37"/>
       <c r="J48" s="35" t="s">
         <v>44</v>
       </c>
@@ -5300,13 +5198,10 @@
         <v>0.99331303459119502</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="2"/>
-        <v>50003.039999999994</v>
-      </c>
-      <c r="H49" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37904.825400000002</v>
       </c>
+      <c r="H49" s="37"/>
       <c r="J49" s="35" t="s">
         <v>45</v>
       </c>
@@ -5344,13 +5239,10 @@
         <v>1.0851020123037074</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="2"/>
-        <v>42651.5</v>
-      </c>
-      <c r="H50" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33513.375650000002</v>
       </c>
+      <c r="H50" s="37"/>
       <c r="J50" s="35" t="s">
         <v>46</v>
       </c>
@@ -5388,13 +5280,10 @@
         <v>0.53960530242123961</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="2"/>
-        <v>114443.5</v>
-      </c>
-      <c r="H51" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>80810.210879999999</v>
       </c>
+      <c r="H51" s="37"/>
       <c r="J51" s="35" t="s">
         <v>47</v>
       </c>
@@ -5432,13 +5321,10 @@
         <v>0.87636999999999987</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="2"/>
-        <v>7200</v>
-      </c>
-      <c r="H52" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5258.2199999999993</v>
       </c>
+      <c r="H52" s="37"/>
       <c r="J52" s="35" t="s">
         <v>48</v>
       </c>
@@ -5477,13 +5363,10 @@
         <v>0.93520499999999995</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="2"/>
-        <v>10320</v>
-      </c>
-      <c r="H53" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7481.6399999999994</v>
       </c>
+      <c r="H53" s="37"/>
       <c r="J53" s="35" t="s">
         <v>49</v>
       </c>
@@ -5522,13 +5405,10 @@
         <v>0.76742587476388102</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="2"/>
-        <v>781015.39</v>
-      </c>
-      <c r="H54" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>597218.48999999987</v>
       </c>
+      <c r="H54" s="37"/>
       <c r="J54" s="35" t="s">
         <v>50</v>
       </c>
@@ -5567,13 +5447,10 @@
         <v>0.7731818067504963</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="2"/>
-        <v>34035.300000000003</v>
-      </c>
-      <c r="H55" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23365.554199999999</v>
       </c>
+      <c r="H55" s="37"/>
       <c r="J55" s="35" t="s">
         <v>51</v>
       </c>
@@ -5612,13 +5489,10 @@
         <v>0.79481080000000004</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="2"/>
-        <v>29199.999999999996</v>
-      </c>
-      <c r="H56" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19870.27</v>
       </c>
+      <c r="H56" s="37"/>
       <c r="J56" s="35" t="s">
         <v>52</v>
       </c>
@@ -5657,13 +5531,10 @@
         <v>0.41639553380569233</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="2"/>
-        <v>27556.400000000001</v>
-      </c>
-      <c r="H57" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17336.628049999999</v>
       </c>
+      <c r="H57" s="37"/>
       <c r="J57" s="35" t="s">
         <v>53</v>
       </c>
@@ -5702,13 +5573,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="2"/>
-        <v>79737.8</v>
-      </c>
-      <c r="H58" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H58" s="37"/>
       <c r="J58" s="35" t="s">
         <v>54</v>
       </c>
@@ -5747,13 +5615,10 @@
         <v>1.3210750056162566</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="2"/>
-        <v>198705.8</v>
-      </c>
-      <c r="H59" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>258745.7506</v>
       </c>
+      <c r="H59" s="37"/>
       <c r="J59" s="35" t="s">
         <v>55</v>
       </c>
@@ -5792,13 +5657,10 @@
         <v>1.2557294418418297</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="2"/>
-        <v>1036073.8128</v>
-      </c>
-      <c r="H60" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>814867.94940000016</v>
       </c>
+      <c r="H60" s="37"/>
       <c r="J60" s="35" t="s">
         <v>56</v>
       </c>
@@ -5837,13 +5699,10 @@
         <v>1.178349802915466</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="2"/>
-        <v>1946512.96</v>
-      </c>
-      <c r="H61" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1956596.8220000002</v>
       </c>
+      <c r="H61" s="37"/>
       <c r="J61" s="35" t="s">
         <v>57</v>
       </c>
@@ -5882,13 +5741,10 @@
         <v>1.0956717511021177</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" si="2"/>
-        <v>93896.75</v>
-      </c>
-      <c r="H62" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>75804.050100000008</v>
       </c>
+      <c r="H62" s="37"/>
       <c r="J62" s="35" t="s">
         <v>58</v>
       </c>
@@ -5927,13 +5783,10 @@
         <v>1.2580483884632718</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="2"/>
-        <v>89282.1</v>
-      </c>
-      <c r="H63" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>69790.234349999999</v>
       </c>
+      <c r="H63" s="37"/>
       <c r="J63" s="35" t="s">
         <v>59</v>
       </c>
@@ -5972,13 +5825,10 @@
         <v>1.2449452498939109</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="2"/>
-        <v>3475221.8000000003</v>
-      </c>
-      <c r="H64" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2490723.3681600005</v>
       </c>
+      <c r="H64" s="37"/>
       <c r="J64" s="35" t="s">
         <v>60</v>
       </c>
@@ -6017,13 +5867,10 @@
         <v>1.175671438641986</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="2"/>
-        <v>1127709.2999999998</v>
-      </c>
-      <c r="H65" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>788852.0218999997</v>
       </c>
+      <c r="H65" s="37"/>
       <c r="J65" s="35" t="s">
         <v>61</v>
       </c>
@@ -6060,13 +5907,10 @@
         <v>0.8007143704737123</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" si="2"/>
-        <v>672753.85</v>
-      </c>
-      <c r="H66" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>510807.7255</v>
       </c>
+      <c r="H66" s="37"/>
       <c r="J66" s="39" t="s">
         <v>62</v>
       </c>
@@ -6103,13 +5947,10 @@
         <v>0.71860723513054503</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" si="2"/>
-        <v>558727.6</v>
-      </c>
-      <c r="H67" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>385051.31479999993</v>
       </c>
+      <c r="H67" s="37"/>
       <c r="J67" s="11"/>
       <c r="P67" s="60"/>
     </row>
@@ -6132,13 +5973,10 @@
         <v>1.2761377805876131</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" si="2"/>
-        <v>209738.8</v>
-      </c>
-      <c r="H68" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>138773.60294999997</v>
       </c>
+      <c r="H68" s="37"/>
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
     </row>
@@ -6161,13 +5999,10 @@
         <v>1.3634690975242332</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" ref="G69:G76" si="3">D69*E69</f>
-        <v>1792811.5</v>
-      </c>
-      <c r="H69" s="37">
-        <f t="shared" ref="H69:H76" si="4">D69*F69</f>
+        <f t="shared" ref="G69:G76" si="1">D69*F69</f>
         <v>1280713.3406499999</v>
       </c>
+      <c r="H69" s="37"/>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B70" s="35" t="s">
@@ -6188,13 +6023,10 @@
         <v>1.0710016958509445</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="3"/>
-        <v>167438.94999999998</v>
-      </c>
-      <c r="H70" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>124161.22659999999</v>
       </c>
+      <c r="H70" s="37"/>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B71" s="35" t="s">
@@ -6215,13 +6047,10 @@
         <v>1.3418995368483959</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="3"/>
-        <v>355524</v>
-      </c>
-      <c r="H71" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>246996.73824999999</v>
       </c>
+      <c r="H71" s="37"/>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B72" s="35" t="s">
@@ -6242,13 +6071,10 @@
         <v>1.0507351288755455</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="3"/>
-        <v>731834.39999999991</v>
-      </c>
-      <c r="H72" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>509568.71104000008</v>
       </c>
+      <c r="H72" s="37"/>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B73" s="35" t="s">
@@ -6269,17 +6095,11 @@
         <v>1.1575221321572104</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="3"/>
-        <v>294432.15000000002</v>
-      </c>
-      <c r="H73" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>221769.66529999996</v>
       </c>
-      <c r="I73" s="37">
-        <f>SUM(G33:G76)</f>
-        <v>61227701.512799971</v>
-      </c>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B74" s="35" t="s">
@@ -6300,13 +6120,10 @@
         <v>1.2804120481176764</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="3"/>
-        <v>287849.5</v>
-      </c>
-      <c r="H74" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>205429.30900000001</v>
       </c>
+      <c r="H74" s="37"/>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B75" s="35" t="s">
@@ -6327,17 +6144,10 @@
         <v>0.3732310299119212</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="3"/>
-        <v>138067.4</v>
-      </c>
-      <c r="H75" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>85596.804400000008</v>
       </c>
-      <c r="K75" s="1" cm="1">
-        <f t="array" ref="K75">SUM(D33:D76*E33:E76)</f>
-        <v>61227701.512799971</v>
-      </c>
+      <c r="H75" s="37"/>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B76" s="35" t="s">
@@ -6358,16 +6168,15 @@
         <v>1.2438429369259345</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" si="3"/>
-        <v>498087.68000000005</v>
+        <f t="shared" si="1"/>
+        <v>977735.17900000012</v>
       </c>
       <c r="H76" s="37">
-        <f t="shared" si="4"/>
-        <v>977735.17900000012</v>
+        <f>SUM(G4:G76)</f>
+        <v>46870805.517265007</v>
       </c>
       <c r="I76" s="11">
-        <f>SUM(H4:H76)</f>
-        <v>46870805.517265007</v>
+        <v>2500000</v>
       </c>
       <c r="P76"/>
       <c r="Q76"/>
@@ -6391,11 +6200,14 @@
         <v>0</v>
       </c>
       <c r="G77" s="2">
-        <f>D77*E77</f>
+        <f>E77*D77</f>
         <v>9763</v>
       </c>
       <c r="H77" s="37"/>
-      <c r="I77" s="11"/>
+      <c r="I77" s="11">
+        <f>SUM(H76:I76)</f>
+        <v>49370805.517265007</v>
+      </c>
       <c r="P77"/>
       <c r="Q77"/>
     </row>
@@ -6418,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" ref="G78:G79" si="5">D78*E78</f>
+        <f t="shared" ref="G78:G79" si="2">E78*D78</f>
         <v>-297524.28999999998</v>
       </c>
       <c r="H78" s="37"/>
@@ -6444,17 +6256,20 @@
         <v>0</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>354718.80000000005</v>
       </c>
-      <c r="H79" s="37">
-        <f>SUM(G77:G79)</f>
-        <v>66957.510000000068</v>
-      </c>
+      <c r="H79" s="37"/>
       <c r="P79"/>
       <c r="Q79"/>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D80" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
@@ -6488,8 +6303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD57A733-1E5A-4C67-BA94-1CEFC4F75056}">
   <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6505,22 +6320,22 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="94"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="96"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
@@ -6756,7 +6571,7 @@
       <c r="B17" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>185</v>
       </c>
       <c r="O17" s="23"/>
@@ -7022,7 +6837,7 @@
   <dimension ref="B1:I28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/FARP_Project Data.xlsx
+++ b/FARP_Project Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\Nicola\UNIBG\Sistemi di controllo di gestione\script analisi scostamenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FFBC9B-9E37-48E4-BB53-5B58EF49F813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E765DD-8CBD-4EA2-A881-5CDA82FC92E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CE 21-22" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="196">
   <si>
     <t>MP1</t>
   </si>
@@ -703,6 +703,9 @@
   <si>
     <t>€/qta</t>
   </si>
+  <si>
+    <t>vedi note</t>
+  </si>
 </sst>
 </file>
 
@@ -722,7 +725,7 @@
     <numFmt numFmtId="172" formatCode="_-&quot;L.&quot;\ * #,##0_-;\-&quot;L.&quot;\ * #,##0_-;_-&quot;L.&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="173" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -896,6 +899,21 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -960,13 +978,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1368,7 +1386,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1551,6 +1569,13 @@
     <xf numFmtId="169" fontId="22" fillId="10" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="4" fillId="11" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="9" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="13" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1584,19 +1609,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="11" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="23" fillId="12" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="4" fillId="12" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="9" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Euro" xfId="16" xr:uid="{6609C029-AE67-4DF2-BB38-0E304B6F97A8}"/>
@@ -2510,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09E9022-8714-451A-AC8C-ADBBD3500E3D}">
   <dimension ref="B1:J62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2528,23 +2550,23 @@
   <sheetData>
     <row r="1" spans="2:10" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="E2" s="88" t="s">
+      <c r="C2" s="92"/>
+      <c r="E2" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="92"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="89" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="90" t="s">
+      <c r="E3" s="93" t="s">
         <v>170</v>
       </c>
       <c r="F3" s="80" t="s">
@@ -2552,11 +2574,11 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="87"/>
+      <c r="B4" s="90"/>
       <c r="C4" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="87"/>
+      <c r="E4" s="90"/>
       <c r="F4" s="43" t="s">
         <v>66</v>
       </c>
@@ -2633,7 +2655,7 @@
       <c r="B11" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="98">
+      <c r="C11" s="86">
         <v>-49370805.517265007</v>
       </c>
       <c r="E11" s="44"/>
@@ -2643,7 +2665,7 @@
       <c r="B12" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="97">
+      <c r="C12" s="101">
         <v>2500000</v>
       </c>
       <c r="E12" s="44"/>
@@ -2653,7 +2675,7 @@
       <c r="B13" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="99">
+      <c r="C13" s="87">
         <f>+C11+C12</f>
         <v>-46870805.517265007</v>
       </c>
@@ -3196,10 +3218,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView showGridLines="0" zoomScale="93" workbookViewId="0">
+      <selection activeCell="M36" sqref="M26:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3226,24 +3248,24 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="93"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
       <c r="H2" s="59"/>
-      <c r="J2" s="91" t="s">
+      <c r="J2" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="93"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="96"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="54" t="s">
@@ -3635,7 +3657,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="101"/>
+      <c r="A12" s="88"/>
       <c r="B12" s="35" t="s">
         <v>8</v>
       </c>
@@ -6148,6 +6170,10 @@
         <v>85596.804400000008</v>
       </c>
       <c r="H75" s="37"/>
+      <c r="J75" s="11">
+        <f>H76-'CE 21-22'!C5</f>
+        <v>-14423853.505534992</v>
+      </c>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B76" s="35" t="s">
@@ -6172,12 +6198,10 @@
         <v>977735.17900000012</v>
       </c>
       <c r="H76" s="37">
-        <f>SUM(G4:G76)</f>
+        <f>SUM(G2:G76)</f>
         <v>46870805.517265007</v>
       </c>
-      <c r="I76" s="11">
-        <v>2500000</v>
-      </c>
+      <c r="I76" s="11"/>
       <c r="P76"/>
       <c r="Q76"/>
     </row>
@@ -6203,11 +6227,11 @@
         <f>E77*D77</f>
         <v>9763</v>
       </c>
-      <c r="H77" s="37"/>
-      <c r="I77" s="11">
-        <f>SUM(H76:I76)</f>
-        <v>49370805.517265007</v>
-      </c>
+      <c r="H77" s="37">
+        <f>H76-G78+G79-G77</f>
+        <v>46918237.027265005</v>
+      </c>
+      <c r="I77" s="11"/>
       <c r="P77"/>
       <c r="Q77"/>
     </row>
@@ -6219,7 +6243,7 @@
         <v>118</v>
       </c>
       <c r="D78" s="37">
-        <v>-15</v>
+        <v>15</v>
       </c>
       <c r="E78" s="37">
         <f>[1]Foglio1!U77</f>
@@ -6231,7 +6255,7 @@
       </c>
       <c r="G78" s="2">
         <f t="shared" ref="G78:G79" si="2">E78*D78</f>
-        <v>-297524.28999999998</v>
+        <v>297524.28999999998</v>
       </c>
       <c r="H78" s="37"/>
       <c r="P78"/>
@@ -6289,6 +6313,9 @@
         <v>155</v>
       </c>
       <c r="H83" s="2"/>
+    </row>
+    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.3">
+      <c r="XFD1048576" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6296,6 +6323,7 @@
     <mergeCell ref="J2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6303,8 +6331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD57A733-1E5A-4C67-BA94-1CEFC4F75056}">
   <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6320,22 +6348,22 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="96"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="99"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
@@ -6438,7 +6466,9 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -6456,7 +6486,7 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="103"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -6837,7 +6867,7 @@
   <dimension ref="B1:I28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
